--- a/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="7920" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
+    <workbookView xWindow="2960" yWindow="-420" windowWidth="24720" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>One of Lin, Log2, Log10, or Ln</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must be TIME::VALUE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME::VALUE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24" style="4" customWidth="1"/>
     <col min="3" max="3" width="65.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,9 +590,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>

--- a/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="-420" windowWidth="24720" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="2960" yWindow="0" windowWidth="24720" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
     <sheet name="openbis-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Header Format</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,13 +95,16 @@
   <si>
     <t>TIME::VALUE_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless, fmol/ug protein digest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -158,7 +157,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -170,7 +169,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,7 +192,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -516,18 +515,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="90" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
@@ -579,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -592,13 +591,13 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +608,7 @@
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -617,14 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -643,7 +642,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
+++ b/eu_basynthec/sourceTest/examples/Proteomics-Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>One of Lin, Log2, Log10, or Ln</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,7 +97,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless, fmol/ug protein digest</t>
+    <t>Reference Strain</t>
+  </si>
+  <si>
+    <t>The Reference Strain (for relative quantification data sets, leave empty for absolute)</t>
+  </si>
+  <si>
+    <t>One of mM, uM, Percent, RatioT1, RatioCs, AU, Dimensionless, fmol/ug</t>
   </si>
 </sst>
 </file>
@@ -516,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" customWidth="1"/>
     <col min="3" max="3" width="90" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -559,44 +565,53 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
